--- a/prep/Senario_differences_loss_coral.xlsx
+++ b/prep/Senario_differences_loss_coral.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="29">
   <si>
     <t>goal</t>
   </si>
@@ -138,8 +138,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L497"/>
+  <dimension ref="A1:P497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L497"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -507,8 +509,14 @@
         <f>D2-J2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="2">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -537,8 +545,14 @@
         <f t="shared" ref="L3:L66" si="0">D3-J3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -568,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -598,7 +612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -628,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -658,7 +672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -688,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -718,7 +732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -748,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -778,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -808,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -838,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -868,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -898,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
